--- a/_WORK/ArcadeWell.xlsx
+++ b/_WORK/ArcadeWell.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1ce976439d0b04f0/Javascript/GravityWell/_WORK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="549" documentId="11_F25DC773A252ABDACC10487A315A68365BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93699577-322C-44AC-A71F-554861F0AEA6}"/>
+  <xr:revisionPtr revIDLastSave="565" documentId="11_F25DC773A252ABDACC10487A315A68365BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40848883-FBD4-4F09-A150-37513AFA76CB}"/>
   <bookViews>
-    <workbookView xWindow="2595" yWindow="720" windowWidth="32760" windowHeight="15975" xr2:uid="{C3EEEA53-99ED-42FC-ABD6-941B583E7D8C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="38700" windowHeight="15435" xr2:uid="{C3EEEA53-99ED-42FC-ABD6-941B583E7D8C}"/>
   </bookViews>
   <sheets>
     <sheet name="collisions" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">collisions!$A$1:$G$1</definedName>
-    <definedName name="_xlchart.v1.0" hidden="1">collisions!$D$2:$D$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">collisions!$A$1:$G$74</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">collisions!$D$2:$D$101</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,33 +40,183 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="101">
+  <si>
+    <t>Game</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Platform</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Composer</t>
+  </si>
+  <si>
+    <t>Pong</t>
+  </si>
+  <si>
+    <t>Colossal Cave Adventure ?</t>
+  </si>
+  <si>
+    <t>Zork ?</t>
+  </si>
+  <si>
+    <t>Space Invaders</t>
+  </si>
   <si>
     <t>Asteroids</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
-    <t>Platform</t>
-  </si>
-  <si>
-    <t>Year</t>
+    <t>Gameplay</t>
+  </si>
+  <si>
+    <t>Arcade</t>
+  </si>
+  <si>
+    <t>Atari</t>
+  </si>
+  <si>
+    <t>Lyle Rains, Ed Logg</t>
+  </si>
+  <si>
+    <t>Centipede</t>
+  </si>
+  <si>
+    <t>Gauntlet</t>
+  </si>
+  <si>
+    <t>Missile Command</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Defender</t>
+  </si>
+  <si>
+    <t>Frogger</t>
+  </si>
+  <si>
+    <t>Galaga</t>
+  </si>
+  <si>
+    <t>Player Spaceship</t>
+  </si>
+  <si>
+    <t>Namco</t>
+  </si>
+  <si>
+    <t>Lode Runner / Space Panic / Donkey Kong</t>
+  </si>
+  <si>
+    <t>1983 / 1980 / 1981</t>
+  </si>
+  <si>
+    <t>Qix</t>
+  </si>
+  <si>
+    <t>Ultima?</t>
+  </si>
+  <si>
+    <t>Joust</t>
+  </si>
+  <si>
+    <t>Zaxxxon</t>
+  </si>
+  <si>
+    <t>Archon</t>
   </si>
   <si>
     <t>Soundtrack</t>
   </si>
   <si>
+    <t>Amiga</t>
+  </si>
+  <si>
+    <t>Electronic Arts</t>
+  </si>
+  <si>
+    <t>Free Fall Associates</t>
+  </si>
+  <si>
+    <t>Tommy V. Dunbar</t>
+  </si>
+  <si>
+    <t>Dragon's Lair</t>
+  </si>
+  <si>
+    <t>Mario Bros</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Boulder Dash / Dig Dug</t>
+  </si>
+  <si>
+    <t>Bruce Lee</t>
+  </si>
+  <si>
+    <t>Duck Hunt</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>Marble Madness</t>
+  </si>
+  <si>
+    <t>Ghost'n Goblins</t>
+  </si>
+  <si>
+    <t>Ikari Warriors</t>
+  </si>
+  <si>
+    <t>Paperboy</t>
+  </si>
+  <si>
+    <t>Paradroid</t>
+  </si>
+  <si>
+    <t>Saboteur</t>
+  </si>
+  <si>
+    <t>Sorcery+</t>
+  </si>
+  <si>
     <t>Space Harrier</t>
   </si>
   <si>
-    <t>Arcade</t>
-  </si>
-  <si>
-    <t>Archon</t>
-  </si>
-  <si>
-    <t>Amiga</t>
+    <t>SEGA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiroshi Kawaguchi </t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Yie Air Kung Fu</t>
+  </si>
+  <si>
+    <t>Bubble Bobble</t>
+  </si>
+  <si>
+    <t>IK+</t>
+  </si>
+  <si>
+    <t>Mega Man 2</t>
   </si>
   <si>
     <t>Metroid</t>
@@ -75,268 +225,124 @@
     <t>NES</t>
   </si>
   <si>
-    <t>Gameplay</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Galaga</t>
+    <t>Nintendo</t>
+  </si>
+  <si>
+    <t>Nintendo R&amp;D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hirokazu Tanaka</t>
+  </si>
+  <si>
+    <t>Plasmaball</t>
+  </si>
+  <si>
+    <t>Out Run</t>
+  </si>
+  <si>
+    <t>Rampage</t>
+  </si>
+  <si>
+    <t>Starflight</t>
+  </si>
+  <si>
+    <t>The Secret Armour of Antiriad</t>
+  </si>
+  <si>
+    <t>The Sentinel</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Zombi</t>
+  </si>
+  <si>
+    <t>After Burner</t>
+  </si>
+  <si>
+    <t>Arkanoid</t>
+  </si>
+  <si>
+    <t>Contra</t>
+  </si>
+  <si>
+    <t>Defender of the Crown</t>
+  </si>
+  <si>
+    <t>Double Dragon</t>
+  </si>
+  <si>
+    <t>Dungeon Master</t>
+  </si>
+  <si>
+    <t>Maniac Mansion / Zak M/ Indy3</t>
+  </si>
+  <si>
+    <t>Operation Wolf</t>
+  </si>
+  <si>
+    <t>Rainbow Islands</t>
+  </si>
+  <si>
+    <t>R-Type / Katakis</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Wizball</t>
+  </si>
+  <si>
+    <t>Zarch</t>
+  </si>
+  <si>
+    <t>Captain Blood</t>
+  </si>
+  <si>
+    <t>Speedball</t>
+  </si>
+  <si>
+    <t>Starglider II</t>
+  </si>
+  <si>
+    <t>Crackdown</t>
+  </si>
+  <si>
+    <t>Golden Axe</t>
+  </si>
+  <si>
+    <t>It Came from the Desert</t>
+  </si>
+  <si>
+    <t>Millennium 2.2</t>
+  </si>
+  <si>
+    <t>Prince of Persia</t>
+  </si>
+  <si>
+    <t>Sim City</t>
+  </si>
+  <si>
+    <t>Space Quest III</t>
   </si>
   <si>
     <t>Star Background</t>
   </si>
   <si>
-    <t>Player Spaceship</t>
-  </si>
-  <si>
     <t>MS-DOS</t>
   </si>
   <si>
-    <t>Space Quest III</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Developer</t>
-  </si>
-  <si>
     <t>Sierra On-Line</t>
   </si>
   <si>
-    <t>Namco</t>
-  </si>
-  <si>
-    <t>Atari</t>
-  </si>
-  <si>
-    <t>Lyle Rains, Ed Logg</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hirokazu Tanaka</t>
-  </si>
-  <si>
-    <t>Composer</t>
-  </si>
-  <si>
-    <t>Nintendo R&amp;D1</t>
-  </si>
-  <si>
-    <t>Nintendo</t>
-  </si>
-  <si>
-    <t>Free Fall Associates</t>
-  </si>
-  <si>
-    <t>Electronic Arts</t>
-  </si>
-  <si>
-    <t>Tommy V. Dunbar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiroshi Kawaguchi </t>
-  </si>
-  <si>
-    <t>SEGA</t>
-  </si>
-  <si>
-    <t>Plasmaball</t>
-  </si>
-  <si>
-    <t>Defender</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
     <t>Starflight 2</t>
   </si>
   <si>
-    <t>Starflight</t>
-  </si>
-  <si>
-    <t>Space Invaders</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Dragon's Lair</t>
-  </si>
-  <si>
-    <t>Missile Command</t>
-  </si>
-  <si>
-    <t>The Sentinel</t>
-  </si>
-  <si>
-    <t>Out Run</t>
-  </si>
-  <si>
-    <t>Zork ?</t>
-  </si>
-  <si>
-    <t>Colossal Cave Adventure ?</t>
-  </si>
-  <si>
-    <t>IK+</t>
-  </si>
-  <si>
-    <t>Lode Runner / Space Panic / Donkey Kong</t>
-  </si>
-  <si>
-    <t>1983 / 1980 / 1981</t>
-  </si>
-  <si>
-    <t>Mega Man 2</t>
-  </si>
-  <si>
-    <t>Ikari Warriors</t>
-  </si>
-  <si>
-    <t>R-Type / Katakis</t>
-  </si>
-  <si>
-    <t>Rainbow Islands</t>
-  </si>
-  <si>
-    <t>Bubble Bobble</t>
-  </si>
-  <si>
-    <t>Zaxxxon</t>
-  </si>
-  <si>
-    <t>Paradroid</t>
-  </si>
-  <si>
-    <t>Zelda</t>
-  </si>
-  <si>
-    <t>Ultima?</t>
-  </si>
-  <si>
-    <t>Dungeon Master</t>
-  </si>
-  <si>
-    <t>Maniac Mansion / Zak M/ Indy3</t>
-  </si>
-  <si>
-    <t>Prince of Persia</t>
-  </si>
-  <si>
-    <t>Sim City</t>
-  </si>
-  <si>
-    <t>Elite</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>The Secret Armour of Antiriad</t>
-  </si>
-  <si>
-    <t>Wizball</t>
-  </si>
-  <si>
-    <t>Frogger</t>
-  </si>
-  <si>
-    <t>Pong</t>
-  </si>
-  <si>
-    <t>Zombi</t>
-  </si>
-  <si>
-    <t>Sorcery+</t>
-  </si>
-  <si>
-    <t>Captain Blood</t>
-  </si>
-  <si>
-    <t>Starglider II</t>
-  </si>
-  <si>
-    <t>Saboteur</t>
-  </si>
-  <si>
-    <t>Gauntlet</t>
-  </si>
-  <si>
-    <t>Millennium 2.2</t>
-  </si>
-  <si>
-    <t>It Came from the Desert</t>
-  </si>
-  <si>
-    <t>Bruce Lee</t>
-  </si>
-  <si>
-    <t>Defender of the Crown</t>
-  </si>
-  <si>
-    <t>Arkanoid</t>
-  </si>
-  <si>
-    <t>Rampage</t>
-  </si>
-  <si>
-    <t>Joust</t>
-  </si>
-  <si>
-    <t>Double Dragon</t>
-  </si>
-  <si>
-    <t>Crackdown</t>
-  </si>
-  <si>
-    <t>Contra</t>
-  </si>
-  <si>
-    <t>Operation Wolf</t>
-  </si>
-  <si>
-    <t>After Burner</t>
-  </si>
-  <si>
-    <t>Ghost'n Goblins</t>
-  </si>
-  <si>
-    <t>Mario Bros</t>
-  </si>
-  <si>
-    <t>Marble Madness</t>
-  </si>
-  <si>
-    <t>Speedball</t>
-  </si>
-  <si>
-    <t>Golden Axe</t>
-  </si>
-  <si>
-    <t>Yie Air Kung Fu</t>
-  </si>
-  <si>
-    <t>Duck Hunt</t>
-  </si>
-  <si>
-    <t>Qix</t>
-  </si>
-  <si>
-    <t>Boulder Dash / Dig Dug</t>
-  </si>
-  <si>
-    <t>Zarch</t>
-  </si>
-  <si>
-    <t>Centipede</t>
-  </si>
-  <si>
-    <t>Paperboy</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Ebonstar</t>
   </si>
 </sst>
 </file>
@@ -408,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -418,6 +424,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1025,16 +1034,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>250031</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>63103</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136921</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>375046</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>73819</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79771</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -1070,8 +1079,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6593681" y="872728"/>
-              <a:ext cx="4925615" cy="2763441"/>
+              <a:off x="10157221" y="161925"/>
+              <a:ext cx="4925616" cy="161925"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1091,7 +1100,7 @@
             <a:p>
               <a:r>
                 <a:rPr lang="en-GB" sz="1100"/>
-                <a:t>This chart isn’t available in your version of Excel.
+                <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
             </a:p>
@@ -1102,6 +1111,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,28 +1380,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E73" sqref="E73"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" style="2"/>
+    <col min="1" max="1" width="34" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="12" style="2"/>
+    <col min="5" max="5" width="12" style="2"/>
+    <col min="6" max="6" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="12" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>2</v>
@@ -1397,18 +1413,18 @@
         <v>3</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2">
         <v>1972</v>
@@ -1416,7 +1432,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2">
         <v>1976</v>
@@ -1424,7 +1440,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
         <v>1977</v>
@@ -1432,7 +1448,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="D5" s="2">
         <v>1978</v>
@@ -1440,27 +1456,27 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
         <v>1979</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>1980</v>
@@ -1468,7 +1484,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>1980</v>
@@ -1476,7 +1492,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
         <v>1980</v>
@@ -1484,7 +1500,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2">
         <v>1980</v>
@@ -1492,7 +1508,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>1981</v>
@@ -1500,7 +1516,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2">
         <v>1981</v>
@@ -1508,38 +1524,38 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="D13" s="2">
         <v>1981</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="D14" s="2">
         <v>1981</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2">
         <v>1981</v>
@@ -1547,7 +1563,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2">
         <v>1981</v>
@@ -1555,7 +1571,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D17" s="2">
         <v>1982</v>
@@ -1563,7 +1579,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="D18" s="2">
         <v>1982</v>
@@ -1571,30 +1587,30 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2">
         <v>1983</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D20" s="2">
         <v>1983</v>
@@ -1602,7 +1618,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="D21" s="2">
         <v>1983</v>
@@ -1610,14 +1626,14 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D22" s="2">
         <v>1983</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>1942</v>
       </c>
       <c r="D23" s="2">
@@ -1626,7 +1642,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2">
         <v>1984</v>
@@ -1634,7 +1650,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2">
         <v>1984</v>
@@ -1642,7 +1658,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>1984</v>
@@ -1650,7 +1666,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D27" s="2">
         <v>1984</v>
@@ -1658,7 +1674,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="D28" s="2">
         <v>1984</v>
@@ -1666,7 +1682,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="D29" s="2">
         <v>1985</v>
@@ -1674,7 +1690,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D30" s="2">
         <v>1985</v>
@@ -1682,7 +1698,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="D31" s="2">
         <v>1985</v>
@@ -1690,7 +1706,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2">
         <v>1985</v>
@@ -1698,7 +1714,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2">
         <v>1985</v>
@@ -1706,7 +1722,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D34" s="2">
         <v>1985</v>
@@ -1714,30 +1730,30 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D35" s="2">
         <v>1985</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D36" s="2">
         <v>1985</v>
@@ -1745,7 +1761,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2">
         <v>1985</v>
@@ -1753,7 +1769,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D38" s="2">
         <v>1986</v>
@@ -1761,7 +1777,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2">
         <v>1986</v>
@@ -1769,7 +1785,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D40" s="2">
         <v>1986</v>
@@ -1777,50 +1793,50 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D41" s="2">
         <v>1986</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>24</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2">
         <v>1986</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="D43" s="2">
         <v>1986</v>
@@ -1828,7 +1844,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="D44" s="2">
         <v>1986</v>
@@ -1836,10 +1852,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2">
         <v>1986</v>
@@ -1847,7 +1863,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2">
         <v>1986</v>
@@ -1855,10 +1871,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D47" s="2">
         <v>1986</v>
@@ -1869,7 +1885,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="D48" s="2">
         <v>1986</v>
@@ -1877,7 +1893,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D49" s="2">
         <v>1986</v>
@@ -1885,7 +1901,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D50" s="2">
         <v>1987</v>
@@ -1893,7 +1909,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D51" s="2">
         <v>1987</v>
@@ -1901,7 +1917,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D52" s="2">
         <v>1987</v>
@@ -1909,7 +1925,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D53" s="2">
         <v>1987</v>
@@ -1917,7 +1933,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2">
         <v>1987</v>
@@ -1925,7 +1941,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2">
         <v>1987</v>
@@ -1933,7 +1949,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D56" s="2">
         <v>1987</v>
@@ -1941,7 +1957,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D57" s="2">
         <v>1987</v>
@@ -1949,7 +1965,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="D58" s="2">
         <v>1987</v>
@@ -1957,7 +1973,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="D59" s="2">
         <v>1987</v>
@@ -1965,7 +1981,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D60" s="2">
         <v>1987</v>
@@ -1973,7 +1989,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="D61" s="2">
         <v>1987</v>
@@ -1981,7 +1997,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="D62" s="2">
         <v>1987</v>
@@ -1989,7 +2005,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="D63" s="2">
         <v>1988</v>
@@ -1997,7 +2013,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>90</v>
+        <v>100</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="D64" s="2">
         <v>1988</v>
@@ -2005,7 +2024,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D65" s="2">
         <v>1988</v>
@@ -2013,15 +2032,15 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D66" s="2">
-        <v>1989</v>
+        <v>1988</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D67" s="2">
         <v>1989</v>
@@ -2029,7 +2048,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="D68" s="2">
         <v>1989</v>
@@ -2037,7 +2056,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="D69" s="2">
         <v>1989</v>
@@ -2045,7 +2064,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D70" s="2">
         <v>1989</v>
@@ -2053,7 +2072,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="D71" s="2">
         <v>1989</v>
@@ -2061,38 +2080,51 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2">
         <v>1989</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>20</v>
-      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="D73" s="2">
         <v>1989</v>
       </c>
+      <c r="E73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D74" s="2">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G1" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G73">
+  <autoFilter ref="A1:G74" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G74">
       <sortCondition ref="D1"/>
     </sortState>
   </autoFilter>
